--- a/MD/ПКФ.xlsx
+++ b/MD/ПКФ.xlsx
@@ -1368,256 +1368,256 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.310688</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>6.719875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>11.392143</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59.205639</c:v>
+                  <c:v>10.345071</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48.201211</c:v>
+                  <c:v>10.61033</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>6.800257</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>3.875077</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>4.376761</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>4.074367</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>3.060672</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2.122066</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>1.136821</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>4.390481</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2.440376</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>3.080418</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>1.790493</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>3.086641</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>2.995858</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>62.75252</c:v>
+                  <c:v>3.819719</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3.713615</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>6.194138</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>5.863603</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>5.631636</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>33.581693</c:v>
+                  <c:v>5.809155</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20.806597</c:v>
+                  <c:v>5.900378</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>3.258887</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>3.701278</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>3.255442</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>4.173396</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>4.221066</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>2.438118</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>3.315728</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>3.637827</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>3.183099</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>3.307926</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>4.040087</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>82.880687</c:v>
+                  <c:v>5.345204</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>3.890454</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>3.993342</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>3.978874</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>3.62985</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>4.500243</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>5.23323</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>25.305636</c:v>
+                  <c:v>5.570423</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>11.114755</c:v>
+                  <c:v>3.913646</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>4.055884</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>3.991505</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>3.829666</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>3.476923</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>3.617158</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>3.373135</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>3.557581</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>3.921209</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>31.37626</c:v>
+                  <c:v>4.456338</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>4.931562</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>3.802035</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>60.17365</c:v>
+                  <c:v>3.749952</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>4.387515</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>3.734836</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>4.062639</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>4.257911</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>4.121705</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>4.311286</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>20.1331</c:v>
+                  <c:v>4.73486</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.230743</c:v>
+                  <c:v>3.851157</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>4.308829</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>4.448668</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>3.903086</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>3.145651</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>3.701278</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>4.427069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>49.193346</c:v>
+                  <c:v>4.376761</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>4.57794</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>4.597809</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>3.53289</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>47.054505</c:v>
+                  <c:v>3.286896</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>4.244132</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>4.436021</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>4.389326</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>3.813087</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>4.528532</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>4.482323</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>4.276284</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>20.785636</c:v>
+                  <c:v>4.042536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2658,7 +2658,7 @@
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2800,7 +2800,7 @@
         <v>0.85</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1.310688</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2808,7 +2808,7 @@
         <v>0.9</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>6.719875</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2816,7 +2816,7 @@
         <v>0.95</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>11.392143</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>59.205639</v>
+        <v>10.345071</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2832,7 +2832,7 @@
         <v>1.05</v>
       </c>
       <c r="B21" s="1">
-        <v>48.201211</v>
+        <v>10.61033</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2840,7 +2840,7 @@
         <v>1.1</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>6.800257</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2848,7 +2848,7 @@
         <v>1.15</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>3.875077</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2856,7 +2856,7 @@
         <v>1.2</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>4.376761</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2864,7 +2864,7 @@
         <v>1.25</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>4.074367</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2872,7 +2872,7 @@
         <v>1.3</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>3.060672</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2880,7 +2880,7 @@
         <v>1.35</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>2.122066</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2888,7 +2888,7 @@
         <v>1.4</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>1.136821</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2896,7 +2896,7 @@
         <v>1.45</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>4.390481</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2904,7 +2904,7 @@
         <v>1.5</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>2.440376</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2912,7 +2912,7 @@
         <v>1.55</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>3.080418</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2920,7 +2920,7 @@
         <v>1.6</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>1.790493</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2928,7 +2928,7 @@
         <v>1.65</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>3.086641</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2936,7 +2936,7 @@
         <v>1.7</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>2.995858</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2944,7 +2944,7 @@
         <v>1.75</v>
       </c>
       <c r="B35" s="1">
-        <v>62.75252</v>
+        <v>3.819719</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2952,7 +2952,7 @@
         <v>1.8</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>3.713615</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2960,7 +2960,7 @@
         <v>1.85</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>6.194138</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2968,7 +2968,7 @@
         <v>1.9</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>5.863603</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2976,7 +2976,7 @@
         <v>1.95</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>5.631636</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2984,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="1">
-        <v>33.581693</v>
+        <v>5.809155</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2992,7 +2992,7 @@
         <v>2.05</v>
       </c>
       <c r="B41" s="1">
-        <v>20.806597</v>
+        <v>5.900378</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3000,7 +3000,7 @@
         <v>2.1</v>
       </c>
       <c r="B42" s="1">
-        <v>0</v>
+        <v>3.258887</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>2.15</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>3.701278</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>2.2</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>3.255442</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>2.25</v>
       </c>
       <c r="B45" s="1">
-        <v>0</v>
+        <v>4.173396</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>2.3</v>
       </c>
       <c r="B46" s="1">
-        <v>0</v>
+        <v>4.221066</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>2.35</v>
       </c>
       <c r="B47" s="1">
-        <v>0</v>
+        <v>2.438118</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>2.4</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
+        <v>3.315728</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>2.45</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
+        <v>3.637827</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>2.5</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
+        <v>3.183099</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>2.55</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>3.307926</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>2.6</v>
       </c>
       <c r="B52" s="1">
-        <v>0</v>
+        <v>4.040087</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>2.65</v>
       </c>
       <c r="B53" s="1">
-        <v>82.880687</v>
+        <v>5.345204</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>2.7</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>3.890454</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>2.75</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>3.993342</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>2.8</v>
       </c>
       <c r="B56" s="1">
-        <v>0</v>
+        <v>3.978874</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>2.85</v>
       </c>
       <c r="B57" s="1">
-        <v>0</v>
+        <v>3.62985</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>2.9</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>4.500243</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>2.95</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>5.23323</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="1">
-        <v>25.305636</v>
+        <v>5.570423</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>3.05</v>
       </c>
       <c r="B61" s="1">
-        <v>11.114755</v>
+        <v>3.913646</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>3.1</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>4.055884</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>3.15</v>
       </c>
       <c r="B63" s="1">
-        <v>0</v>
+        <v>3.991505</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>3.2</v>
       </c>
       <c r="B64" s="1">
-        <v>0</v>
+        <v>3.829666</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>3.25</v>
       </c>
       <c r="B65" s="1">
-        <v>0</v>
+        <v>3.476923</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>3.3</v>
       </c>
       <c r="B66" s="1">
-        <v>0</v>
+        <v>3.617158</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>3.35</v>
       </c>
       <c r="B67" s="1">
-        <v>0</v>
+        <v>3.373135</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>3.4</v>
       </c>
       <c r="B68" s="1">
-        <v>0</v>
+        <v>3.557581</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>3.45</v>
       </c>
       <c r="B69" s="1">
-        <v>0</v>
+        <v>3.921209</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>3.5</v>
       </c>
       <c r="B70" s="1">
-        <v>31.37626</v>
+        <v>4.456338</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>3.55</v>
       </c>
       <c r="B71" s="1">
-        <v>0</v>
+        <v>4.931562</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>3.6</v>
       </c>
       <c r="B72" s="1">
-        <v>0</v>
+        <v>3.802035</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>3.65</v>
       </c>
       <c r="B73" s="1">
-        <v>60.17365</v>
+        <v>3.749952</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>3.7</v>
       </c>
       <c r="B74" s="1">
-        <v>0</v>
+        <v>4.387515</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>3.75</v>
       </c>
       <c r="B75" s="1">
-        <v>0</v>
+        <v>3.734836</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>3.8</v>
       </c>
       <c r="B76" s="1">
-        <v>0</v>
+        <v>4.062639</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>3.85</v>
       </c>
       <c r="B77" s="1">
-        <v>0</v>
+        <v>4.257911</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>3.9</v>
       </c>
       <c r="B78" s="1">
-        <v>0</v>
+        <v>4.121705</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>3.95</v>
       </c>
       <c r="B79" s="1">
-        <v>0</v>
+        <v>4.311286</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3304,7 +3304,7 @@
         <v>4</v>
       </c>
       <c r="B80" s="1">
-        <v>20.1331</v>
+        <v>4.73486</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3312,7 +3312,7 @@
         <v>4.05</v>
       </c>
       <c r="B81" s="1">
-        <v>7.230743</v>
+        <v>3.851157</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3320,7 +3320,7 @@
         <v>4.1</v>
       </c>
       <c r="B82" s="1">
-        <v>0</v>
+        <v>4.308829</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3328,7 +3328,7 @@
         <v>4.15</v>
       </c>
       <c r="B83" s="1">
-        <v>0</v>
+        <v>4.448668</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3336,7 +3336,7 @@
         <v>4.2</v>
       </c>
       <c r="B84" s="1">
-        <v>0</v>
+        <v>3.903086</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3344,7 +3344,7 @@
         <v>4.25</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>3.145651</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3352,7 +3352,7 @@
         <v>4.3</v>
       </c>
       <c r="B86" s="1">
-        <v>0</v>
+        <v>3.701278</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3360,7 +3360,7 @@
         <v>4.35</v>
       </c>
       <c r="B87" s="1">
-        <v>0</v>
+        <v>4.427069</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3368,7 +3368,7 @@
         <v>4.4</v>
       </c>
       <c r="B88" s="1">
-        <v>49.193346</v>
+        <v>4.376761</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3376,7 +3376,7 @@
         <v>4.45</v>
       </c>
       <c r="B89" s="1">
-        <v>0</v>
+        <v>4.57794</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3384,7 +3384,7 @@
         <v>4.5</v>
       </c>
       <c r="B90" s="1">
-        <v>0</v>
+        <v>4.597809</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3392,7 +3392,7 @@
         <v>4.55</v>
       </c>
       <c r="B91" s="1">
-        <v>0</v>
+        <v>3.53289</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>4.6</v>
       </c>
       <c r="B92" s="1">
-        <v>47.054505</v>
+        <v>3.286896</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3408,7 +3408,7 @@
         <v>4.65</v>
       </c>
       <c r="B93" s="1">
-        <v>0</v>
+        <v>4.244132</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>4.7</v>
       </c>
       <c r="B94" s="1">
-        <v>0</v>
+        <v>4.436021</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>4.75</v>
       </c>
       <c r="B95" s="1">
-        <v>0</v>
+        <v>4.389326</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>4.8</v>
       </c>
       <c r="B96" s="1">
-        <v>0</v>
+        <v>3.813087</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>4.85</v>
       </c>
       <c r="B97" s="1">
-        <v>0</v>
+        <v>4.528532</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>4.9</v>
       </c>
       <c r="B98" s="1">
-        <v>0</v>
+        <v>4.482323</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3456,7 +3456,7 @@
         <v>4.95</v>
       </c>
       <c r="B99" s="1">
-        <v>0</v>
+        <v>4.276284</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3464,7 +3464,7 @@
         <v>5</v>
       </c>
       <c r="B100" s="1">
-        <v>20.785636</v>
+        <v>4.042536</v>
       </c>
     </row>
   </sheetData>

--- a/MD/ПКФ.xlsx
+++ b/MD/ПКФ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="23040" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,20 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0">Лист1!$A$1:$B$100</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
@@ -1368,256 +1381,256 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.310688</c:v>
+                  <c:v>0.374482</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.719875</c:v>
+                  <c:v>4.420971</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.392143</c:v>
+                  <c:v>11.224612</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.345071</c:v>
+                  <c:v>12.573241</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.61033</c:v>
+                  <c:v>9.852449</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.800257</c:v>
+                  <c:v>9.40461</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.875077</c:v>
+                  <c:v>6.781385</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>4.111503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.673803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.693391</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.768388</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.069417</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.756192</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.485446</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.258973</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.795775</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.893726</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.119304</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.637827</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.420971</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.247812</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.376576</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.060311</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.92324</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.279286</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.31992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.145431</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.761844</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.244132</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.560319</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.792628</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.917841</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.24806</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.482817</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.120685</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.305526</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.444327</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.774648</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.166966</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.3999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.746726</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.939291</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.395083</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.668545</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.53983</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.953203</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.132573</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.879402</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.966631</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.002988</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.895733</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.119304</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.782813</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.36499</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.76592</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.023083</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.706348</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.645604</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.20169</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.109711</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.877996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.10112</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.069531</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.336972</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.283429</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.338372</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.180214</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.94098</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.707374</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.775303</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.98802</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.544815</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.648046</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.633177</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.512305</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.290264</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.175678</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.571472</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.054263</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>4.376761</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.074367</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.060672</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.122066</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.136821</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.390481</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.440376</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.080418</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.790493</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.086641</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.995858</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.819719</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.713615</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.194138</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.863603</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.631636</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.809155</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.900378</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.258887</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.701278</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.255442</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.173396</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.221066</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.438118</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.315728</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.637827</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.183099</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.307926</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4.040087</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.345204</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.890454</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.993342</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.978874</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.62985</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.500243</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.23323</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.570423</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.913646</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.055884</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.991505</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.829666</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.476923</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.617158</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.373135</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.557581</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.921209</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4.456338</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.931562</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.802035</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3.749952</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4.387515</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.734836</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>4.062639</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.257911</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>4.121705</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>4.311286</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4.73486</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.851157</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4.308829</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.448668</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.903086</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.145651</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.701278</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.427069</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4.376761</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4.57794</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4.597809</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>3.53289</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3.286896</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.244132</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.436021</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.389326</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>3.813087</c:v>
-                </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.528532</c:v>
+                  <c:v>4.495717</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.482323</c:v>
+                  <c:v>5.002012</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.276284</c:v>
+                  <c:v>4.211979</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.042536</c:v>
+                  <c:v>4.20169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1769,6 +1782,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{9c5f5d1d-0e1e-4f18-b4ec-34f0be636f34}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2658,7 +2676,7 @@
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2800,7 +2818,7 @@
         <v>0.85</v>
       </c>
       <c r="B17" s="1">
-        <v>1.310688</v>
+        <v>0.374482</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2808,7 +2826,7 @@
         <v>0.9</v>
       </c>
       <c r="B18" s="1">
-        <v>6.719875</v>
+        <v>4.420971</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2816,7 +2834,7 @@
         <v>0.95</v>
       </c>
       <c r="B19" s="1">
-        <v>11.392143</v>
+        <v>11.224612</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2824,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>10.345071</v>
+        <v>12.573241</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2832,7 +2850,7 @@
         <v>1.05</v>
       </c>
       <c r="B21" s="1">
-        <v>10.61033</v>
+        <v>9.852449</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2840,7 +2858,7 @@
         <v>1.1</v>
       </c>
       <c r="B22" s="1">
-        <v>6.800257</v>
+        <v>9.40461</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2848,7 +2866,7 @@
         <v>1.15</v>
       </c>
       <c r="B23" s="1">
-        <v>3.875077</v>
+        <v>6.781385</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2856,7 +2874,7 @@
         <v>1.2</v>
       </c>
       <c r="B24" s="1">
-        <v>4.376761</v>
+        <v>4.111503</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2864,7 +2882,7 @@
         <v>1.25</v>
       </c>
       <c r="B25" s="1">
-        <v>4.074367</v>
+        <v>2.673803</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2872,7 +2890,7 @@
         <v>1.3</v>
       </c>
       <c r="B26" s="1">
-        <v>3.060672</v>
+        <v>2.693391</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2880,7 +2898,7 @@
         <v>1.35</v>
       </c>
       <c r="B27" s="1">
-        <v>2.122066</v>
+        <v>1.768388</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2888,7 +2906,7 @@
         <v>1.4</v>
       </c>
       <c r="B28" s="1">
-        <v>1.136821</v>
+        <v>3.069417</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2896,7 +2914,7 @@
         <v>1.45</v>
       </c>
       <c r="B29" s="1">
-        <v>4.390481</v>
+        <v>1.756192</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2904,7 +2922,7 @@
         <v>1.5</v>
       </c>
       <c r="B30" s="1">
-        <v>2.440376</v>
+        <v>1.485446</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2912,7 +2930,7 @@
         <v>1.55</v>
       </c>
       <c r="B31" s="1">
-        <v>3.080418</v>
+        <v>2.258973</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2920,7 +2938,7 @@
         <v>1.6</v>
       </c>
       <c r="B32" s="1">
-        <v>1.790493</v>
+        <v>0.795775</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2928,7 +2946,7 @@
         <v>1.65</v>
       </c>
       <c r="B33" s="1">
-        <v>3.086641</v>
+        <v>2.893726</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2936,7 +2954,7 @@
         <v>1.7</v>
       </c>
       <c r="B34" s="1">
-        <v>2.995858</v>
+        <v>4.119304</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2944,7 +2962,7 @@
         <v>1.75</v>
       </c>
       <c r="B35" s="1">
-        <v>3.819719</v>
+        <v>3.637827</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2952,7 +2970,7 @@
         <v>1.8</v>
       </c>
       <c r="B36" s="1">
-        <v>3.713615</v>
+        <v>4.420971</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2960,7 +2978,7 @@
         <v>1.85</v>
       </c>
       <c r="B37" s="1">
-        <v>6.194138</v>
+        <v>5.247812</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2968,7 +2986,7 @@
         <v>1.9</v>
       </c>
       <c r="B38" s="1">
-        <v>5.863603</v>
+        <v>8.376576</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2976,7 +2994,7 @@
         <v>1.95</v>
       </c>
       <c r="B39" s="1">
-        <v>5.631636</v>
+        <v>5.060311</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2984,7 +3002,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="1">
-        <v>5.809155</v>
+        <v>6.92324</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2992,7 +3010,7 @@
         <v>2.05</v>
       </c>
       <c r="B41" s="1">
-        <v>5.900378</v>
+        <v>5.279286</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3000,7 +3018,7 @@
         <v>2.1</v>
       </c>
       <c r="B42" s="1">
-        <v>3.258887</v>
+        <v>4.31992</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3008,7 +3026,7 @@
         <v>2.15</v>
       </c>
       <c r="B43" s="1">
-        <v>3.701278</v>
+        <v>4.145431</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3016,7 +3034,7 @@
         <v>2.2</v>
       </c>
       <c r="B44" s="1">
-        <v>3.255442</v>
+        <v>3.761844</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3024,7 +3042,7 @@
         <v>2.25</v>
       </c>
       <c r="B45" s="1">
-        <v>4.173396</v>
+        <v>4.244132</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3032,7 +3050,7 @@
         <v>2.3</v>
       </c>
       <c r="B46" s="1">
-        <v>4.221066</v>
+        <v>2.560319</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3040,7 +3058,7 @@
         <v>2.35</v>
       </c>
       <c r="B47" s="1">
-        <v>2.438118</v>
+        <v>3.792628</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3048,7 +3066,7 @@
         <v>2.4</v>
       </c>
       <c r="B48" s="1">
-        <v>3.315728</v>
+        <v>2.917841</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3056,7 +3074,7 @@
         <v>2.45</v>
       </c>
       <c r="B49" s="1">
-        <v>3.637827</v>
+        <v>3.24806</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3064,7 +3082,7 @@
         <v>2.5</v>
       </c>
       <c r="B50" s="1">
-        <v>3.183099</v>
+        <v>2.482817</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3072,7 +3090,7 @@
         <v>2.55</v>
       </c>
       <c r="B51" s="1">
-        <v>3.307926</v>
+        <v>3.120685</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3080,7 +3098,7 @@
         <v>2.6</v>
       </c>
       <c r="B52" s="1">
-        <v>4.040087</v>
+        <v>3.305526</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3088,7 +3106,7 @@
         <v>2.65</v>
       </c>
       <c r="B53" s="1">
-        <v>5.345204</v>
+        <v>4.444327</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3096,7 +3114,7 @@
         <v>2.7</v>
       </c>
       <c r="B54" s="1">
-        <v>3.890454</v>
+        <v>4.774648</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3104,7 +3122,7 @@
         <v>2.75</v>
       </c>
       <c r="B55" s="1">
-        <v>3.993342</v>
+        <v>4.166966</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3112,7 +3130,7 @@
         <v>2.8</v>
       </c>
       <c r="B56" s="1">
-        <v>3.978874</v>
+        <v>5.3999</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3120,7 +3138,7 @@
         <v>2.85</v>
       </c>
       <c r="B57" s="1">
-        <v>3.62985</v>
+        <v>4.746726</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3128,7 +3146,7 @@
         <v>2.9</v>
       </c>
       <c r="B58" s="1">
-        <v>4.500243</v>
+        <v>4.939291</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3136,7 +3154,7 @@
         <v>2.95</v>
       </c>
       <c r="B59" s="1">
-        <v>5.23323</v>
+        <v>5.395083</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3144,7 +3162,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="1">
-        <v>5.570423</v>
+        <v>4.668545</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3152,7 +3170,7 @@
         <v>3.05</v>
       </c>
       <c r="B61" s="1">
-        <v>3.913646</v>
+        <v>4.53983</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3160,7 +3178,7 @@
         <v>3.1</v>
       </c>
       <c r="B62" s="1">
-        <v>4.055884</v>
+        <v>3.953203</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3168,7 +3186,7 @@
         <v>3.15</v>
       </c>
       <c r="B63" s="1">
-        <v>3.991505</v>
+        <v>3.132573</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3176,7 +3194,7 @@
         <v>3.2</v>
       </c>
       <c r="B64" s="1">
-        <v>3.829666</v>
+        <v>3.879402</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3184,7 +3202,7 @@
         <v>3.25</v>
       </c>
       <c r="B65" s="1">
-        <v>3.476923</v>
+        <v>3.966631</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3192,7 +3210,7 @@
         <v>3.3</v>
       </c>
       <c r="B66" s="1">
-        <v>3.617158</v>
+        <v>4.002988</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3200,7 +3218,7 @@
         <v>3.35</v>
       </c>
       <c r="B67" s="1">
-        <v>3.373135</v>
+        <v>3.895733</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3208,7 +3226,7 @@
         <v>3.4</v>
       </c>
       <c r="B68" s="1">
-        <v>3.557581</v>
+        <v>4.119304</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3216,7 +3234,7 @@
         <v>3.45</v>
       </c>
       <c r="B69" s="1">
-        <v>3.921209</v>
+        <v>3.782813</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3224,7 +3242,7 @@
         <v>3.5</v>
       </c>
       <c r="B70" s="1">
-        <v>4.456338</v>
+        <v>3.36499</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3232,7 +3250,7 @@
         <v>3.55</v>
       </c>
       <c r="B71" s="1">
-        <v>4.931562</v>
+        <v>3.76592</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3240,7 +3258,7 @@
         <v>3.6</v>
       </c>
       <c r="B72" s="1">
-        <v>3.802035</v>
+        <v>4.023083</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3248,7 +3266,7 @@
         <v>3.65</v>
       </c>
       <c r="B73" s="1">
-        <v>3.749952</v>
+        <v>3.706348</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3256,7 +3274,7 @@
         <v>3.7</v>
       </c>
       <c r="B74" s="1">
-        <v>4.387515</v>
+        <v>4.645604</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3264,7 +3282,7 @@
         <v>3.75</v>
       </c>
       <c r="B75" s="1">
-        <v>3.734836</v>
+        <v>4.20169</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3272,7 +3290,7 @@
         <v>3.8</v>
       </c>
       <c r="B76" s="1">
-        <v>4.062639</v>
+        <v>5.109711</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3280,7 +3298,7 @@
         <v>3.85</v>
       </c>
       <c r="B77" s="1">
-        <v>4.257911</v>
+        <v>4.877996</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3288,7 +3306,7 @@
         <v>3.9</v>
       </c>
       <c r="B78" s="1">
-        <v>4.121705</v>
+        <v>5.10112</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3296,7 +3314,7 @@
         <v>3.95</v>
       </c>
       <c r="B79" s="1">
-        <v>4.311286</v>
+        <v>4.069531</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3304,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="B80" s="1">
-        <v>4.73486</v>
+        <v>4.336972</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3312,7 +3330,7 @@
         <v>4.05</v>
       </c>
       <c r="B81" s="1">
-        <v>3.851157</v>
+        <v>4.283429</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3320,7 +3338,7 @@
         <v>4.1</v>
       </c>
       <c r="B82" s="1">
-        <v>4.308829</v>
+        <v>3.338372</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3328,7 +3346,7 @@
         <v>4.15</v>
       </c>
       <c r="B83" s="1">
-        <v>4.448668</v>
+        <v>4.180214</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3336,7 +3354,7 @@
         <v>4.2</v>
       </c>
       <c r="B84" s="1">
-        <v>3.903086</v>
+        <v>3.94098</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3344,7 +3362,7 @@
         <v>4.25</v>
       </c>
       <c r="B85" s="1">
-        <v>3.145651</v>
+        <v>3.707374</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3352,7 +3370,7 @@
         <v>4.3</v>
       </c>
       <c r="B86" s="1">
-        <v>3.701278</v>
+        <v>3.775303</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3360,7 +3378,7 @@
         <v>4.35</v>
       </c>
       <c r="B87" s="1">
-        <v>4.427069</v>
+        <v>3.98802</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3368,7 +3386,7 @@
         <v>4.4</v>
       </c>
       <c r="B88" s="1">
-        <v>4.376761</v>
+        <v>3.544815</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3376,7 +3394,7 @@
         <v>4.45</v>
       </c>
       <c r="B89" s="1">
-        <v>4.57794</v>
+        <v>3.648046</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3384,7 +3402,7 @@
         <v>4.5</v>
       </c>
       <c r="B90" s="1">
-        <v>4.597809</v>
+        <v>4.633177</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3392,7 +3410,7 @@
         <v>4.55</v>
       </c>
       <c r="B91" s="1">
-        <v>3.53289</v>
+        <v>4.512305</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3400,7 +3418,7 @@
         <v>4.6</v>
       </c>
       <c r="B92" s="1">
-        <v>3.286896</v>
+        <v>4.290264</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3408,7 +3426,7 @@
         <v>4.65</v>
       </c>
       <c r="B93" s="1">
-        <v>4.244132</v>
+        <v>4.175678</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3416,7 +3434,7 @@
         <v>4.7</v>
       </c>
       <c r="B94" s="1">
-        <v>4.436021</v>
+        <v>4.571472</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3424,7 +3442,7 @@
         <v>4.75</v>
       </c>
       <c r="B95" s="1">
-        <v>4.389326</v>
+        <v>4.054263</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3432,7 +3450,7 @@
         <v>4.8</v>
       </c>
       <c r="B96" s="1">
-        <v>3.813087</v>
+        <v>4.376761</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3440,7 +3458,7 @@
         <v>4.85</v>
       </c>
       <c r="B97" s="1">
-        <v>4.528532</v>
+        <v>4.495717</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3448,7 +3466,7 @@
         <v>4.9</v>
       </c>
       <c r="B98" s="1">
-        <v>4.482323</v>
+        <v>5.002012</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3456,7 +3474,7 @@
         <v>4.95</v>
       </c>
       <c r="B99" s="1">
-        <v>4.276284</v>
+        <v>4.211979</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3464,7 +3482,7 @@
         <v>5</v>
       </c>
       <c r="B100" s="1">
-        <v>4.042536</v>
+        <v>4.20169</v>
       </c>
     </row>
   </sheetData>
